--- a/ExcelEditor/Data.xlsx
+++ b/ExcelEditor/Data.xlsx
@@ -28,9 +28,6 @@
     <t>微信号</t>
   </si>
   <si>
-    <t>媒体名称</t>
-  </si>
-  <si>
     <t>所在城市</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>selected_style</t>
+  </si>
+  <si>
+    <t>单位名称</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,25 +449,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
